--- a/com.treatians.demo/excel data/Book1.xlsx
+++ b/com.treatians.demo/excel data/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{372BB38D-0E3A-48AC-AD16-B685B84DD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C71507BE-0C34-47D0-AE53-5F77A1E72227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BE4EAD8-52C3-4DFB-8756-605FCD34E726}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Passsword</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2589A4B-8CB7-4B0B-B951-35A3589635CA}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,9 +429,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7A8A32EC-F0F7-4220-BABE-89547815DC89}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{9F3DF0C5-6E98-4DCB-9A0C-7E4A632DD128}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{0D18BC5D-2B0F-4279-BA8B-BADC76D4BE1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
